--- a/test.xlsx
+++ b/test.xlsx
@@ -438,7 +438,7 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
